--- a/artfynd/A 30406-2020.xlsx
+++ b/artfynd/A 30406-2020.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>88774724</v>
+        <v>89602968</v>
       </c>
       <c r="B2" t="n">
         <v>89945</v>
@@ -714,9 +714,6 @@
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Sönner-Storåhöjden, Jmt</t>
@@ -729,7 +726,7 @@
         <v>7133474.905035073</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -771,18 +768,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>På stående död asp</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -794,10 +785,14 @@
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Erland Lindblad</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr"/>
+          <t>Via Erland Lindblad</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>Kontinuitetsskogar och skogar med höga naturvärden ovan och i nära anslutning till fjällnära gränsen</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
